--- a/templates/input_ephys.xlsx
+++ b/templates/input_ephys.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\nwb\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9AE558-BB50-494A-A797-3C80CB6B6BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F1BE0C-06AE-4435-B81E-2C008ABCAF03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="4005" windowWidth="28800" windowHeight="15345" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="auto" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
   <si>
     <t>session_id</t>
   </si>
@@ -33,9 +33,6 @@
     <t>subject_id</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>subject_description</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>session_description</t>
   </si>
   <si>
-    <t>src_folder_directory</t>
-  </si>
-  <si>
     <t>stimulus_notes_include</t>
   </si>
   <si>
@@ -78,18 +72,9 @@
     <t>pharmacology_notes_anesthetized_during_recording</t>
   </si>
   <si>
-    <t>pharmacology</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>electrode_device_name</t>
   </si>
   <si>
-    <t>electrode_recordings</t>
-  </si>
-  <si>
     <t>electrode_recordings_type</t>
   </si>
   <si>
@@ -135,9 +120,6 @@
     <t>Fig 2d, 2e</t>
   </si>
   <si>
-    <t>20191017_Chronic implant_SL2701_San4\20191107_San4_day21\ephys</t>
-  </si>
-  <si>
     <t>None</t>
   </si>
   <si>
@@ -147,9 +129,6 @@
     <t>SL2701</t>
   </si>
   <si>
-    <t>20191107_San4_day21_EXP.xls</t>
-  </si>
-  <si>
     <t>Penetrating</t>
   </si>
   <si>
@@ -165,12 +144,6 @@
     <t>Left barrel cortex</t>
   </si>
   <si>
-    <t>20191107_EIS2_after_waking_up_before_pos2.csv</t>
-  </si>
-  <si>
-    <t>20191017_Chronic implant_SL2701_San4\20191107_San4_day21</t>
-  </si>
-  <si>
     <t>0.1Hz-20kHz</t>
   </si>
   <si>
@@ -187,6 +160,48 @@
   </si>
   <si>
     <t>Boston University</t>
+  </si>
+  <si>
+    <t>session_start_time(YYYY-MM-DD HH:MM)</t>
+  </si>
+  <si>
+    <t>age(days)</t>
+  </si>
+  <si>
+    <t>publication_figures</t>
+  </si>
+  <si>
+    <t>include_nwb</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>description of session</t>
+  </si>
+  <si>
+    <t>recordings_folder_directory</t>
+  </si>
+  <si>
+    <t>stimulus_notes_file</t>
+  </si>
+  <si>
+    <t>electrical</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>pharmacology_notes</t>
+  </si>
+  <si>
+    <t>anesthesia_acute_chronic</t>
+  </si>
+  <si>
+    <t>20191017_Chronic implant_SL2701_San4\20191107_San4_day21\ephys\20191107_San4_day21_EXP.xls</t>
   </si>
 </sst>
 </file>
@@ -205,7 +220,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,18 +231,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor rgb="FFFFBF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor rgb="FF993366"/>
       </patternFill>
     </fill>
     <fill>
@@ -258,16 +261,14 @@
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -356,9 +357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -396,7 +397,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -502,7 +503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -644,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -652,265 +653,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AG3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:Q1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.42578125" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="4.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
-    <col min="6" max="6" width="5.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27" customWidth="1"/>
-    <col min="11" max="13" width="3.7109375" customWidth="1"/>
-    <col min="14" max="14" width="30.85546875" customWidth="1"/>
-    <col min="15" max="15" width="65.140625" customWidth="1"/>
-    <col min="16" max="17" width="20.140625" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1"/>
-    <col min="19" max="19" width="33.5703125" customWidth="1"/>
-    <col min="20" max="22" width="16.5703125" customWidth="1"/>
-    <col min="23" max="23" width="18" customWidth="1"/>
-    <col min="24" max="24" width="7.7109375" customWidth="1"/>
-    <col min="25" max="25" width="4" customWidth="1"/>
-    <col min="26" max="26" width="8" customWidth="1"/>
-    <col min="27" max="27" width="45.5703125" customWidth="1"/>
-    <col min="28" max="28" width="16.85546875" customWidth="1"/>
-    <col min="29" max="29" width="5.42578125" customWidth="1"/>
-    <col min="30" max="30" width="24" customWidth="1"/>
-    <col min="31" max="31" width="4.7109375" customWidth="1"/>
-    <col min="32" max="32" width="26" customWidth="1"/>
-    <col min="33" max="33" width="2" customWidth="1"/>
-    <col min="34" max="34" width="3.7109375" customWidth="1"/>
-    <col min="35" max="35" width="95" customWidth="1"/>
-    <col min="36" max="36" width="78.5703125" customWidth="1"/>
-    <col min="38" max="38" width="5" customWidth="1"/>
-    <col min="39" max="39" width="2" customWidth="1"/>
-    <col min="40" max="40" width="11.5703125" customWidth="1"/>
-    <col min="41" max="41" width="2" customWidth="1"/>
-    <col min="42" max="42" width="91" customWidth="1"/>
+    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="11" width="27" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" customWidth="1"/>
+    <col min="13" max="13" width="91.7109375" customWidth="1"/>
+    <col min="14" max="15" width="20.140625" customWidth="1"/>
+    <col min="16" max="16" width="43.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" customWidth="1"/>
+    <col min="18" max="18" width="33.5703125" customWidth="1"/>
+    <col min="19" max="19" width="55.140625" customWidth="1"/>
+    <col min="20" max="20" width="51.7109375" customWidth="1"/>
+    <col min="21" max="21" width="51.85546875" customWidth="1"/>
+    <col min="22" max="22" width="26.7109375" customWidth="1"/>
+    <col min="23" max="23" width="31.5703125" customWidth="1"/>
+    <col min="24" max="24" width="37.42578125" customWidth="1"/>
+    <col min="25" max="25" width="27.28515625" customWidth="1"/>
+    <col min="26" max="26" width="42" customWidth="1"/>
+    <col min="27" max="27" width="34.28515625" customWidth="1"/>
+    <col min="28" max="28" width="33.42578125" customWidth="1"/>
+    <col min="29" max="29" width="30.85546875" customWidth="1"/>
+    <col min="30" max="30" width="21.42578125" customWidth="1"/>
+    <col min="31" max="31" width="91" customWidth="1"/>
+    <col min="32" max="32" width="18.7109375" customWidth="1"/>
+    <col min="33" max="33" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="1" t="s">
+      <c r="M1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="S1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45511.583333333336</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>93</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="3">
+        <v>43683</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2"/>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" t="s">
+        <v>32</v>
+      </c>
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="AG3" t="s">
         <v>50</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="X1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AK1" s="4"/>
-      <c r="AN1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>93</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="6">
-        <v>43683</v>
-      </c>
-      <c r="N2" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2">
-        <v>21</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL2">
-        <v>32</v>
-      </c>
-      <c r="AM2">
-        <v>1</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
